--- a/any-data/extenal-resource/test-upload-excel.xlsx
+++ b/any-data/extenal-resource/test-upload-excel.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t xml:space="preserve">parenNode</t>
   </si>
@@ -39,25 +39,7 @@
     <t xml:space="preserve">createClass</t>
   </si>
   <si>
-    <t xml:space="preserve">variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">String</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">double</t>
+    <t xml:space="preserve">createVariable</t>
   </si>
 </sst>
 </file>
@@ -176,8 +158,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,54 +201,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -303,7 +243,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -326,7 +266,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
